--- a/DataFiles/Data.xlsx
+++ b/DataFiles/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SeleniumWebdriver\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F846323E-6EB1-4D7B-947F-7A42477A10A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="3135" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugzilla" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Control Type</t>
   </si>
@@ -116,12 +117,15 @@
   </si>
   <si>
     <t>thaotran@bugzilla.com</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -160,10 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -474,9 +479,15 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43899</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -595,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -717,7 +728,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
